--- a/02 Data/Prepared Data/Confusion Matrix Summary 1-5.xlsx
+++ b/02 Data/Prepared Data/Confusion Matrix Summary 1-5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ratul\anaconda_projects\Machine Learning\02 Data\Prepared Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ratul\anaconda_projects\Machine Learning\Weather Stations\02 Data\Prepared Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{138D751C-5BD3-4C13-958A-CB54BBEFBE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D826930F-DE05-4F5F-A5FA-A2E8F9E41565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="0" windowWidth="18950" windowHeight="20840" xr2:uid="{5EBBBC3F-E184-4883-AB17-C7AACFB98484}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$46:$H$46</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="25">
   <si>
     <t xml:space="preserve">BASEL </t>
   </si>
@@ -102,10 +105,16 @@
     <t xml:space="preserve">Average </t>
   </si>
   <si>
-    <t>Model 2</t>
+    <t>Model 3: ANN</t>
   </si>
   <si>
-    <t>Model 3</t>
+    <t>Model 2: Decision Tree</t>
+  </si>
+  <si>
+    <t>Model 1: KNN</t>
+  </si>
+  <si>
+    <t>Pleasant days %</t>
   </si>
 </sst>
 </file>
@@ -371,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -401,6 +410,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,6 +427,1008 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pleasant days %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$47:$B$61</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>SONNBLICK</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MADRID</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BELAGRADE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BUDAPEST</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LJUBLJANA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BASEL </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>HEATHROW</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DUSSELDORF</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MAASTRICHT</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MUNCHENB</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>STOCKHOLM</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DEBILT</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>OSLO</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>KASSEL</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>VALENTIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$47:$H$61</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42262112234227955</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30986406413384454</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30934123387940049</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27535726734053678</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2338794004879749</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20982920878354827</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18905732706046349</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18821889159986058</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18343504795117699</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16782851167654234</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16451725339839665</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1566747995817358</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1563262460787731</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3461136284419657E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-042F-4271-BC93-D984EC143B9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="681318712"/>
+        <c:axId val="681319072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="681318712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="681319072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="681319072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="681318712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>3174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>107949</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99FAA922-D9E1-AC6D-F69C-ABC4C318868F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -735,10 +1748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44437BE-79A1-4996-BC35-3223C6522B82}">
-  <dimension ref="B2:G62"/>
+  <dimension ref="B1:H62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -747,8 +1760,14 @@
     <col min="3" max="5" width="13.36328125" customWidth="1"/>
     <col min="6" max="6" width="13.6328125" customWidth="1"/>
     <col min="7" max="7" width="10.81640625" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="15" t="s">
@@ -1094,7 +2113,7 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -1263,7 +2282,7 @@
         <v>0.89159986057859886</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33" s="13" t="s">
         <v>7</v>
       </c>
@@ -1284,7 +2303,7 @@
         <v>0.96444754269780408</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" s="13" t="s">
         <v>8</v>
       </c>
@@ -1305,7 +2324,7 @@
         <v>0.8734750784245382</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B35" s="13" t="s">
         <v>9</v>
       </c>
@@ -1326,7 +2345,7 @@
         <v>0.8738236319275009</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" s="13" t="s">
         <v>10</v>
       </c>
@@ -1347,7 +2366,7 @@
         <v>0.89438828860230046</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" s="13" t="s">
         <v>11</v>
       </c>
@@ -1368,7 +2387,7 @@
         <v>0.9086789822237713</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B38" s="13" t="s">
         <v>12</v>
       </c>
@@ -1389,7 +2408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39" s="13" t="s">
         <v>13</v>
       </c>
@@ -1410,7 +2429,7 @@
         <v>0.84524224468455911</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B40" s="14" t="s">
         <v>14</v>
       </c>
@@ -1431,7 +2450,7 @@
         <v>0.87835482746601601</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F41" t="s">
         <v>20</v>
       </c>
@@ -1440,13 +2459,13 @@
         <v>0.90103404205878934</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="46" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B46" s="15" t="s">
         <v>19</v>
       </c>
@@ -1463,176 +2482,211 @@
       <c r="G46" s="18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B47" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="6">
         <v>0</v>
       </c>
-      <c r="C47" s="6">
-        <v>4118</v>
-      </c>
       <c r="D47" s="7">
-        <v>1342</v>
+        <v>5738</v>
       </c>
       <c r="E47" s="3">
-        <v>88</v>
-      </c>
-      <c r="F47" s="3">
-        <v>190</v>
+        <v>0</v>
+      </c>
+      <c r="F47" s="26">
+        <v>0</v>
       </c>
       <c r="G47" s="19">
         <f>((C47+D47)-(E47+F47))/SUM(C47:F47)</f>
+        <v>1</v>
+      </c>
+      <c r="H47" s="25">
+        <f>D47/(C47+D47+E47+F47)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B48" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="8">
+        <v>3112</v>
+      </c>
+      <c r="D48" s="9">
+        <v>2425</v>
+      </c>
+      <c r="E48" s="1">
+        <v>126</v>
+      </c>
+      <c r="F48" s="4">
+        <v>75</v>
+      </c>
+      <c r="G48" s="20">
+        <f>((C48+D48)-(E48+F48))/SUM(C48:F48)</f>
+        <v>0.92994074590449638</v>
+      </c>
+      <c r="H48" s="25">
+        <f>D48/(C48+D48+E48+F48)</f>
+        <v>0.42262112234227955</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B49" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="8">
+        <v>3652</v>
+      </c>
+      <c r="D49" s="9">
+        <v>1778</v>
+      </c>
+      <c r="E49" s="1">
+        <v>218</v>
+      </c>
+      <c r="F49" s="4">
+        <v>90</v>
+      </c>
+      <c r="G49" s="20">
+        <f>((C49+D49)-(E49+F49))/SUM(C49:F49)</f>
+        <v>0.89264552108748696</v>
+      </c>
+      <c r="H49" s="25">
+        <f>D49/(C49+D49+E49+F49)</f>
+        <v>0.30986406413384454</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B50" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="8">
+        <v>3715</v>
+      </c>
+      <c r="D50" s="9">
+        <v>1775</v>
+      </c>
+      <c r="E50" s="1">
+        <v>77</v>
+      </c>
+      <c r="F50" s="4">
+        <v>171</v>
+      </c>
+      <c r="G50" s="20">
+        <f>((C50+D50)-(E50+F50))/SUM(C50:F50)</f>
+        <v>0.91355873126524922</v>
+      </c>
+      <c r="H50" s="25">
+        <f>D50/(C50+D50+E50+F50)</f>
+        <v>0.30934123387940049</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B51" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="8">
+        <v>3840</v>
+      </c>
+      <c r="D51" s="9">
+        <v>1580</v>
+      </c>
+      <c r="E51" s="1">
+        <v>10</v>
+      </c>
+      <c r="F51" s="4">
+        <v>308</v>
+      </c>
+      <c r="G51" s="20">
+        <f>((C51+D51)-(E51+F51))/SUM(C51:F51)</f>
+        <v>0.88915998605785984</v>
+      </c>
+      <c r="H51" s="25">
+        <f>D51/(C51+D51+E51+F51)</f>
+        <v>0.27535726734053678</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B52" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="8">
+        <v>4118</v>
+      </c>
+      <c r="D52" s="9">
+        <v>1342</v>
+      </c>
+      <c r="E52" s="1">
+        <v>88</v>
+      </c>
+      <c r="F52" s="1">
+        <v>190</v>
+      </c>
+      <c r="G52" s="20">
+        <f>((C52+D52)-(E52+F52))/SUM(C52:F52)</f>
         <v>0.90310212617636809</v>
       </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B48" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="8">
-        <v>3652</v>
-      </c>
-      <c r="D48" s="9">
-        <v>1778</v>
-      </c>
-      <c r="E48" s="1">
-        <v>218</v>
-      </c>
-      <c r="F48" s="4">
-        <v>90</v>
-      </c>
-      <c r="G48" s="20">
-        <f t="shared" ref="G48:G61" si="2">((C48+D48)-(E48+F48))/SUM(C48:F48)</f>
-        <v>0.89264552108748696</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B49" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" s="8">
-        <v>3715</v>
-      </c>
-      <c r="D49" s="9">
-        <v>1775</v>
-      </c>
-      <c r="E49" s="1">
-        <v>77</v>
-      </c>
-      <c r="F49" s="4">
-        <v>171</v>
-      </c>
-      <c r="G49" s="20">
-        <f t="shared" si="2"/>
-        <v>0.91355873126524922</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B50" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="8">
-        <v>4393</v>
-      </c>
-      <c r="D50" s="9">
-        <v>944</v>
-      </c>
-      <c r="E50" s="1">
-        <v>193</v>
-      </c>
-      <c r="F50" s="4">
-        <v>208</v>
-      </c>
-      <c r="G50" s="20">
-        <f t="shared" si="2"/>
-        <v>0.86023004531195535</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B51" s="13" t="s">
+      <c r="H52" s="25">
+        <f>D52/(C52+D52+E52+F52)</f>
+        <v>0.2338794004879749</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B53" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="8">
+        <v>4270</v>
+      </c>
+      <c r="D53" s="9">
+        <v>1204</v>
+      </c>
+      <c r="E53" s="1">
+        <v>41</v>
+      </c>
+      <c r="F53" s="4">
+        <v>223</v>
+      </c>
+      <c r="G53" s="20">
+        <f>((C53+D53)-(E53+F53))/SUM(C53:F53)</f>
+        <v>0.9079818752178459</v>
+      </c>
+      <c r="H53" s="25">
+        <f>D53/(C53+D53+E53+F53)</f>
+        <v>0.20982920878354827</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B54" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C54" s="8">
         <v>4374</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D54" s="9">
         <v>1085</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E54" s="1">
         <v>168</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F54" s="4">
         <v>112</v>
       </c>
-      <c r="G51" s="20">
-        <f t="shared" si="2"/>
+      <c r="G54" s="20">
+        <f>((C54+D54)-(E54+F54))/SUM(C54:F54)</f>
         <v>0.90242202474298661</v>
       </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="8">
-        <v>4270</v>
-      </c>
-      <c r="D52" s="9">
-        <v>1204</v>
-      </c>
-      <c r="E52" s="1">
-        <v>41</v>
-      </c>
-      <c r="F52" s="4">
-        <v>223</v>
-      </c>
-      <c r="G52" s="20">
-        <f t="shared" si="2"/>
-        <v>0.9079818752178459</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B53" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="8">
-        <v>4570</v>
-      </c>
-      <c r="D53" s="9">
-        <v>897</v>
-      </c>
-      <c r="E53" s="1">
-        <v>101</v>
-      </c>
-      <c r="F53" s="4">
-        <v>170</v>
-      </c>
-      <c r="G53" s="20">
-        <f t="shared" si="2"/>
-        <v>0.905542000697107</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B54" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="8">
-        <v>3840</v>
-      </c>
-      <c r="D54" s="9">
-        <v>1580</v>
-      </c>
-      <c r="E54" s="1">
-        <v>10</v>
-      </c>
-      <c r="F54" s="4">
-        <v>308</v>
-      </c>
-      <c r="G54" s="20">
-        <f t="shared" si="2"/>
-        <v>0.88915998605785984</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H54" s="25">
+        <f>D54/(C54+D54+E54+F54)</f>
+        <v>0.18905732706046349</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B55" s="13" t="s">
         <v>8</v>
       </c>
@@ -1649,116 +2703,140 @@
         <v>154</v>
       </c>
       <c r="G55" s="20">
-        <f t="shared" si="2"/>
+        <f>((C55+D55)-(E55+F55))/SUM(C55:F55)</f>
         <v>0.90449634018821889</v>
       </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H55" s="25">
+        <f>D55/(C55+D55+E55+F55)</f>
+        <v>0.18821889159986058</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B56" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C56" s="8">
-        <v>3112</v>
+        <v>4386</v>
       </c>
       <c r="D56" s="9">
-        <v>2425</v>
+        <v>1052</v>
       </c>
       <c r="E56" s="1">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="F56" s="4">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="G56" s="20">
-        <f t="shared" si="2"/>
-        <v>0.92994074590449638</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
+        <f>((C56+D56)-(E56+F56))/SUM(C56:F56)</f>
+        <v>0.89642545771578031</v>
+      </c>
+      <c r="H56" s="25">
+        <f>D56/(C56+D56+E56+F56)</f>
+        <v>0.18343504795117699</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B57" s="13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C57" s="8">
-        <v>4386</v>
+        <v>4481</v>
       </c>
       <c r="D57" s="9">
-        <v>1052</v>
+        <v>963</v>
       </c>
       <c r="E57" s="1">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="F57" s="4">
-        <v>152</v>
+        <v>280</v>
       </c>
       <c r="G57" s="20">
-        <f t="shared" si="2"/>
-        <v>0.89642545771578031</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
+        <f>((C57+D57)-(E57+F57))/SUM(C57:F57)</f>
+        <v>0.89752527012896477</v>
+      </c>
+      <c r="H57" s="25">
+        <f>D57/(C57+D57+E57+F57)</f>
+        <v>0.16782851167654234</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B58" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="8">
+        <v>4393</v>
+      </c>
+      <c r="D58" s="9">
+        <v>944</v>
+      </c>
+      <c r="E58" s="1">
+        <v>193</v>
+      </c>
+      <c r="F58" s="4">
+        <v>208</v>
+      </c>
+      <c r="G58" s="20">
+        <f>((C58+D58)-(E58+F58))/SUM(C58:F58)</f>
+        <v>0.86023004531195535</v>
+      </c>
+      <c r="H58" s="25">
+        <f>D58/(C58+D58+E58+F58)</f>
+        <v>0.16451725339839665</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B59" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C59" s="8">
         <v>4467</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D59" s="8">
         <v>899</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E59" s="1">
         <v>34</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F59" s="4">
         <v>338</v>
       </c>
-      <c r="G58" s="20">
-        <f t="shared" si="2"/>
+      <c r="G59" s="20">
+        <f>((C59+D59)-(E59+F59))/SUM(C59:F59)</f>
         <v>0.87033809689787378</v>
       </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B59" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" s="8">
-        <v>5738</v>
-      </c>
-      <c r="D59" s="9">
-        <v>0</v>
-      </c>
-      <c r="E59" s="1">
-        <v>0</v>
-      </c>
-      <c r="F59" s="4">
-        <v>0</v>
-      </c>
-      <c r="G59" s="20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H59" s="25">
+        <f>D59/(C59+D59+E59+F59)</f>
+        <v>0.1566747995817358</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B60" s="13" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C60" s="8">
-        <v>4481</v>
+        <v>4570</v>
       </c>
       <c r="D60" s="9">
-        <v>963</v>
+        <v>897</v>
       </c>
       <c r="E60" s="1">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="F60" s="4">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="G60" s="20">
-        <f t="shared" si="2"/>
-        <v>0.89752527012896477</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <f>((C60+D60)-(E60+F60))/SUM(C60:F60)</f>
+        <v>0.905542000697107</v>
+      </c>
+      <c r="H60" s="25">
+        <f>D60/(C60+D60+E60+F60)</f>
+        <v>0.1563262460787731</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B61" s="14" t="s">
         <v>14</v>
       </c>
@@ -1775,26 +2853,37 @@
         <v>71</v>
       </c>
       <c r="G61" s="21">
-        <f t="shared" si="2"/>
+        <f>((C61+D61)-(E61+F61))/SUM(C61:F61)</f>
         <v>0.93377483443708609</v>
       </c>
-    </row>
-    <row r="62" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H61" s="25">
+        <f>D61/(C61+D61+E61+F61)</f>
+        <v>3.3461136284419657E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F62" t="s">
         <v>20</v>
       </c>
       <c r="G62" s="22">
         <f>AVERAGE(G47:G61)</f>
-        <v>0.90714287038861852</v>
+        <v>0.90714287038861863</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B46:H46" xr:uid="{A44437BE-79A1-4996-BC35-3223C6522B82}">
+    <filterColumn colId="1" showButton="0"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B47:H62">
+      <sortCondition descending="1" ref="H46"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C46:D46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
